--- a/dakar_jours_.xlsx
+++ b/dakar_jours_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Ths\THESE\Premiere Partie\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C706E94D-3711-4082-A2F1-9C95398D4CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A017DBA0-F83A-4604-BB2C-18FD0372790C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,11 +169,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-SN"/>
+              <a:t>Dakar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-SN" baseline="0"/>
+              <a:t> - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-SN"/>
               <a:t>Jour</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="fr-SN" baseline="0"/>
-              <a:t> Type</a:t>
+              <a:t> Type - 21 Septembre</a:t>
             </a:r>
             <a:endParaRPr lang="fr-SN"/>
           </a:p>
@@ -86243,7 +86251,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dakar_jours_.xlsx
+++ b/dakar_jours_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Ths\THESE\Premiere Partie\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A017DBA0-F83A-4604-BB2C-18FD0372790C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB979253-9F31-4ACF-A036-C3335DD06B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1320,16 +1320,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -86251,7 +86251,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dakar_jours_.xlsx
+++ b/dakar_jours_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Ths\THESE\Premiere Partie\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBA1662-731F-495B-ADD0-64E3A458A98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23169ADD-EE15-423E-A052-804CF6EDCA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -128,11 +128,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -697,8 +692,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1794,7 +1790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y366"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A260" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
@@ -29994,7 +29990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AB0B49-CC9B-4ECE-A976-5E25BD6F686E}">
   <dimension ref="A1:Y366"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A241" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -43168,80 +43164,80 @@
         <v>27.00820129332314</v>
       </c>
     </row>
-    <row r="172" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="6">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
         <v>54958</v>
       </c>
-      <c r="B172" s="8">
+      <c r="B172" s="4">
         <v>26.813591201580021</v>
       </c>
-      <c r="C172" s="8">
+      <c r="C172" s="4">
         <v>26.71628615570846</v>
       </c>
-      <c r="D172" s="8">
+      <c r="D172" s="4">
         <v>26.521676063965341</v>
       </c>
-      <c r="E172" s="8">
+      <c r="E172" s="4">
         <v>26.42437101809378</v>
       </c>
-      <c r="F172" s="8">
+      <c r="F172" s="4">
         <v>26.327065972222229</v>
       </c>
-      <c r="G172" s="8">
+      <c r="G172" s="4">
         <v>26.229760926350661</v>
       </c>
-      <c r="H172" s="8">
+      <c r="H172" s="4">
         <v>26.521676063965341</v>
       </c>
-      <c r="I172" s="8">
+      <c r="I172" s="4">
         <v>26.813591201580021</v>
       </c>
-      <c r="J172" s="8">
+      <c r="J172" s="4">
         <v>27.105506339194701</v>
       </c>
-      <c r="K172" s="8">
+      <c r="K172" s="4">
         <v>27.5920315685525</v>
       </c>
-      <c r="L172" s="8">
+      <c r="L172" s="4">
         <v>28.078556797910299</v>
       </c>
-      <c r="M172" s="8">
+      <c r="M172" s="4">
         <v>28.565082027268101</v>
       </c>
-      <c r="N172" s="8">
+      <c r="N172" s="4">
         <v>28.75969211901122</v>
       </c>
-      <c r="O172" s="8">
+      <c r="O172" s="4">
         <v>29.0516072566259</v>
       </c>
-      <c r="P172" s="8">
+      <c r="P172" s="4">
         <v>29.246217348369012</v>
       </c>
-      <c r="Q172" s="8">
+      <c r="Q172" s="4">
         <v>28.85699716488277</v>
       </c>
-      <c r="R172" s="8">
+      <c r="R172" s="4">
         <v>28.370471935524979</v>
       </c>
-      <c r="S172" s="8">
+      <c r="S172" s="4">
         <v>27.981251752038741</v>
       </c>
-      <c r="T172" s="8">
+      <c r="T172" s="4">
         <v>27.494726522680939</v>
       </c>
-      <c r="U172" s="8">
+      <c r="U172" s="4">
         <v>27.00820129332314</v>
       </c>
-      <c r="V172" s="8">
+      <c r="V172" s="4">
         <v>26.521676063965341</v>
       </c>
-      <c r="W172" s="8">
+      <c r="W172" s="4">
         <v>26.229760926350661</v>
       </c>
-      <c r="X172" s="8">
+      <c r="X172" s="4">
         <v>26.035150834607549</v>
       </c>
-      <c r="Y172" s="8">
+      <c r="Y172" s="4">
         <v>26.035150834607549</v>
       </c>
     </row>
@@ -44016,79 +44012,79 @@
       </c>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A183" s="6">
+      <c r="A183" s="2">
         <v>54969</v>
       </c>
-      <c r="B183" s="8">
+      <c r="B183" s="4">
         <v>26.93408714337026</v>
       </c>
-      <c r="C183" s="8">
+      <c r="C183" s="4">
         <v>26.83137921449908</v>
       </c>
-      <c r="D183" s="8">
+      <c r="D183" s="4">
         <v>26.728479932095901</v>
       </c>
-      <c r="E183" s="8">
+      <c r="E183" s="4">
         <v>26.625388866139271</v>
       </c>
-      <c r="F183" s="8">
+      <c r="F183" s="4">
         <v>26.422859269779099</v>
       </c>
-      <c r="G183" s="8">
+      <c r="G183" s="4">
         <v>26.220000132119321</v>
       </c>
-      <c r="H183" s="8">
+      <c r="H183" s="4">
         <v>25.917427398780891</v>
       </c>
-      <c r="I183" s="8">
+      <c r="I183" s="4">
         <v>26.9072618750304</v>
       </c>
-      <c r="J183" s="8">
+      <c r="J183" s="4">
         <v>27.59985245354039</v>
       </c>
-      <c r="K183" s="8">
+      <c r="K183" s="4">
         <v>28.890888597234419</v>
       </c>
-      <c r="L183" s="8">
+      <c r="L183" s="4">
         <v>28.98775991400716</v>
       </c>
-      <c r="M183" s="8">
+      <c r="M183" s="4">
         <v>29.084715242782451</v>
       </c>
-      <c r="N183" s="8">
+      <c r="N183" s="4">
         <v>29.880332244977051</v>
       </c>
-      <c r="O183" s="8">
+      <c r="O183" s="4">
         <v>29.878075040857389</v>
       </c>
-      <c r="P183" s="8">
+      <c r="P183" s="4">
         <v>29.476022642351971</v>
       </c>
-      <c r="Q183" s="8">
+      <c r="Q183" s="4">
         <v>29.873400179139662</v>
       </c>
-      <c r="R183" s="8">
+      <c r="R183" s="4">
         <v>29.07038617420902</v>
       </c>
-      <c r="S183" s="8">
+      <c r="S183" s="4">
         <v>28.366347438440911</v>
       </c>
-      <c r="T183" s="8">
+      <c r="T183" s="4">
         <v>27.86170472893285</v>
       </c>
-      <c r="U183" s="8">
+      <c r="U183" s="4">
         <v>26.854887721080331</v>
       </c>
-      <c r="V183" s="8">
+      <c r="V183" s="4">
         <v>26.85015345420117</v>
       </c>
-      <c r="W183" s="8">
+      <c r="W183" s="4">
         <v>26.84536169736165</v>
       </c>
-      <c r="X183" s="8">
+      <c r="X183" s="4">
         <v>26.74001804351629</v>
       </c>
-      <c r="Y183" s="8">
+      <c r="Y183" s="4">
         <v>26.63447597137014</v>
       </c>
     </row>
@@ -56028,79 +56024,79 @@
       </c>
     </row>
     <row r="339" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A339" s="6">
+      <c r="A339" s="2">
         <v>55125</v>
       </c>
-      <c r="B339" s="8">
+      <c r="B339" s="4">
         <v>25.378289766771491</v>
       </c>
-      <c r="C339" s="8">
+      <c r="C339" s="4">
         <v>25.474255000873519</v>
       </c>
-      <c r="D339" s="8">
+      <c r="D339" s="4">
         <v>25.474255000873519</v>
       </c>
-      <c r="E339" s="8">
+      <c r="E339" s="4">
         <v>25.28232453266946</v>
       </c>
-      <c r="F339" s="8">
+      <c r="F339" s="4">
         <v>25.090394064465411</v>
       </c>
-      <c r="G339" s="8">
+      <c r="G339" s="4">
         <v>24.898463596261351</v>
       </c>
-      <c r="H339" s="8">
+      <c r="H339" s="4">
         <v>24.994428830363379</v>
       </c>
-      <c r="I339" s="8">
+      <c r="I339" s="4">
         <v>25.186359298567439</v>
       </c>
-      <c r="J339" s="8">
+      <c r="J339" s="4">
         <v>25.474255000873519</v>
       </c>
-      <c r="K339" s="8">
+      <c r="K339" s="4">
         <v>26.337942107791751</v>
       </c>
-      <c r="L339" s="8">
+      <c r="L339" s="4">
         <v>27.297594448812021</v>
       </c>
-      <c r="M339" s="8">
+      <c r="M339" s="4">
         <v>28.161281555730259</v>
       </c>
-      <c r="N339" s="8">
+      <c r="N339" s="4">
         <v>28.353212023934312</v>
       </c>
-      <c r="O339" s="8">
+      <c r="O339" s="4">
         <v>28.641107726240389</v>
       </c>
-      <c r="P339" s="8">
+      <c r="P339" s="4">
         <v>28.833038194444441</v>
       </c>
-      <c r="Q339" s="8">
+      <c r="Q339" s="4">
         <v>28.833038194444441</v>
       </c>
-      <c r="R339" s="8">
+      <c r="R339" s="4">
         <v>28.353212023934312</v>
       </c>
-      <c r="S339" s="8">
+      <c r="S339" s="4">
         <v>27.96935108752621</v>
       </c>
-      <c r="T339" s="8">
+      <c r="T339" s="4">
         <v>26.913733512403919</v>
       </c>
-      <c r="U339" s="8">
+      <c r="U339" s="4">
         <v>26.050046405485681</v>
       </c>
-      <c r="V339" s="8">
+      <c r="V339" s="4">
         <v>25.186359298567439</v>
       </c>
-      <c r="W339" s="8">
+      <c r="W339" s="4">
         <v>25.090394064465411</v>
       </c>
-      <c r="X339" s="8">
+      <c r="X339" s="4">
         <v>25.090394064465411</v>
       </c>
-      <c r="Y339" s="8">
+      <c r="Y339" s="4">
         <v>24.994428830363379</v>
       </c>
     </row>
@@ -58192,7 +58188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A109525D-BCEA-45D2-87D4-702EE2AAEF06}">
   <dimension ref="A1:Y366"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A124" zoomScale="82" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="M231" sqref="M231"/>
     </sheetView>
   </sheetViews>
@@ -86403,13 +86399,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
     </row>

--- a/dakar_jours_.xlsx
+++ b/dakar_jours_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Ths\THESE\Premiere Partie\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23169ADD-EE15-423E-A052-804CF6EDCA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507C99F3-E737-4BBC-80CF-E76DE2DB1AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,6 +35,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
@@ -57,8 +79,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -131,6 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,7 +824,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.3284896516841645"/>
           <c:y val="9.0285536933581642E-2"/>
-          <c:w val="0.370526162299888"/>
+          <c:w val="0.48577441782543135"/>
           <c:h val="6.4212778197245898E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1455,15 +1479,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -86386,10 +86410,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F25C96-9B6D-4582-A07C-58528FE0888C}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -86398,7 +86422,7 @@
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -86409,7 +86433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>26.9</v>
       </c>
@@ -86420,7 +86444,7 @@
         <v>29.591928507637341</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>26.8</v>
       </c>
@@ -86431,7 +86455,7 @@
         <v>29.48721675597438</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>26.7</v>
       </c>
@@ -86442,7 +86466,7 @@
         <v>29.382505004311412</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>26.6</v>
       </c>
@@ -86453,7 +86477,7 @@
         <v>29.27779325264844</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>26.5</v>
       </c>
@@ -86464,7 +86488,7 @@
         <v>29.173081500985461</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>26.4</v>
       </c>
@@ -86474,8 +86498,16 @@
       <c r="C7">
         <v>29.068369749322489</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L7" s="7" cm="1">
+        <f t="array" ref="L7">MAX(Tableau1[2050]-MAX(Tableau1[2020]))</f>
+        <v>1.6129556618009318</v>
+      </c>
+      <c r="M7" s="7" cm="1">
+        <f t="array" ref="M7">MAX(Tableau1[2080]-MAX(Tableau1[2020]))</f>
+        <v>2.8851103258191628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>25</v>
       </c>
@@ -86486,7 +86518,7 @@
         <v>27.60240522604089</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>25.5</v>
       </c>
@@ -86497,7 +86529,7 @@
         <v>28.125963984355749</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>26</v>
       </c>
@@ -86508,7 +86540,7 @@
         <v>28.649522742670609</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>27</v>
       </c>
@@ -86519,7 +86551,7 @@
         <v>29.69664025930032</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>28.2</v>
       </c>
@@ -86530,7 +86562,7 @@
         <v>30.953181279255979</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>29.5</v>
       </c>
@@ -86541,7 +86573,7 @@
         <v>32.314434050874603</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>30.2</v>
       </c>
@@ -86552,7 +86584,7 @@
         <v>33.047416312515402</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>31</v>
       </c>
@@ -86563,7 +86595,7 @@
         <v>33.885110325819163</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>30.5</v>
       </c>

--- a/dakar_jours_.xlsx
+++ b/dakar_jours_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Ths\THESE\Premiere Partie\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507C99F3-E737-4BBC-80CF-E76DE2DB1AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ADDFC3-5025-49FB-A54D-78B3AD86269E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,11 +193,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -224,11 +222,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -246,8 +242,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.2867043963254599E-2"/>
-          <c:y val="0.15507485447000688"/>
+          <c:x val="5.8197574441125895E-2"/>
+          <c:y val="0.11469295963555216"/>
           <c:w val="0.91421628937007871"/>
           <c:h val="0.74188893287780366"/>
         </c:manualLayout>
@@ -270,40 +266,59 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -410,40 +425,59 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -550,40 +584,59 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent3">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -699,10 +752,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -716,9 +768,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -729,9 +785,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -758,10 +812,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -775,13 +828,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -792,9 +845,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -817,15 +868,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3284896516841645"/>
-          <c:y val="9.0285536933581642E-2"/>
-          <c:w val="0.48577441782543135"/>
-          <c:h val="6.4212778197245898E-2"/>
+          <c:x val="0.28485577672909734"/>
+          <c:y val="0.92364434421425479"/>
+          <c:w val="0.43028844654180542"/>
+          <c:h val="6.8265040899013849E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -843,9 +894,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -862,14 +911,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -937,15 +983,13 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
@@ -954,29 +998,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -991,9 +1041,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -1002,18 +1050,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1021,131 +1073,72 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1161,16 +1154,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1182,22 +1173,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1206,16 +1197,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1224,13 +1216,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1242,7 +1234,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1250,15 +1242,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="75000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1270,18 +1261,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="25000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1290,16 +1279,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1308,16 +1298,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1326,9 +1316,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -1337,7 +1325,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -1345,7 +1333,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1353,10 +1341,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1364,16 +1361,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1382,11 +1380,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1395,14 +1391,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -1412,9 +1406,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -1423,21 +1415,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1446,29 +1436,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1484,10 +1471,10 @@
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -86413,7 +86400,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dakar_jours_.xlsx
+++ b/dakar_jours_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Ths\THESE\Premiere Partie\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ADDFC3-5025-49FB-A54D-78B3AD86269E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1B60F9-5075-4D51-AF26-57B4213A03AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jours 2020" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1797,15 +1797,64 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="5">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{42EFB135-A27F-4687-B38C-4C41E51CC6FB}">
+  <we:reference id="wa200005502" version="1.0.0.11" store="fr-FR" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200005502" version="1.0.0.11" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="docId" value="&quot;tlCyFc3c1QWhjSKBgc3-x&quot;"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_LIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HLIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CLASSIFY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TRANSLATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EXTRACT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TAG</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CONVERT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FORMAT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SUMMARIZE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TABLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FILL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HSPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EDIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_MATCH</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_VISION</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_WEB</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y366"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A260" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -30003,7 +30052,7 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A241" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -58203,7 +58252,7 @@
       <selection activeCell="M231" sqref="M231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -86399,11 +86448,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F25C96-9B6D-4582-A07C-58528FE0888C}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
